--- a/资产负债表/688668.xlsx
+++ b/资产负债表/688668.xlsx
@@ -769,7 +769,7 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>002</t>
+          <t>001</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
@@ -789,49 +789,65 @@
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>2020-06-30 00:00:00</t>
+          <t>2018-12-31 00:00:00</t>
         </is>
       </c>
       <c r="O2" t="n">
-        <v>465486349.12</v>
+        <v>293752048.01</v>
       </c>
       <c r="P2" t="n">
-        <v>140201801.52</v>
+        <v>91929681.16</v>
       </c>
       <c r="Q2" t="n">
-        <v>12302265.4</v>
-      </c>
-      <c r="R2" t="inlineStr"/>
+        <v>2651505.23</v>
+      </c>
+      <c r="R2" t="n">
+        <v>22.6300258769</v>
+      </c>
       <c r="S2" t="n">
-        <v>145693570.47</v>
-      </c>
-      <c r="T2" t="inlineStr"/>
+        <v>84135473.90000001</v>
+      </c>
+      <c r="T2" t="n">
+        <v>83.9170774461</v>
+      </c>
       <c r="U2" t="n">
-        <v>81077923.83</v>
-      </c>
-      <c r="V2" t="inlineStr"/>
+        <v>56637824.44</v>
+      </c>
+      <c r="V2" t="n">
+        <v>59.2442056396</v>
+      </c>
       <c r="W2" t="n">
-        <v>147109632.17</v>
+        <v>84716870.87</v>
       </c>
       <c r="X2" t="n">
-        <v>90065070.09999999</v>
-      </c>
-      <c r="Y2" t="inlineStr"/>
+        <v>43010263.48</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>153.613804039</v>
+      </c>
       <c r="Z2" t="n">
-        <v>122890.12</v>
-      </c>
-      <c r="AA2" t="inlineStr"/>
+        <v>352292.68</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>-64.98645256659999</v>
+      </c>
       <c r="AB2" t="n">
-        <v>318376716.95</v>
-      </c>
-      <c r="AC2" t="inlineStr"/>
-      <c r="AD2" t="inlineStr"/>
-      <c r="AE2" t="inlineStr"/>
+        <v>209035177.14</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>37.2430540793</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>43.2704180411</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>60.6826974564</v>
+      </c>
       <c r="AF2" t="n">
-        <v>213.7804359889</v>
+        <v>205.0990134597</v>
       </c>
       <c r="AG2" t="n">
-        <v>31.6034256317</v>
+        <v>28.83958476</v>
       </c>
       <c r="AH2" t="inlineStr"/>
       <c r="AI2" t="inlineStr"/>

--- a/资产负债表/688668.xlsx
+++ b/资产负债表/688668.xlsx
@@ -769,14 +769,14 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
+          <t>002</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
           <t>001</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>001</t>
-        </is>
-      </c>
       <c r="L2" t="inlineStr">
         <is>
           <t>2</t>
@@ -789,65 +789,49 @@
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>2018-12-31 00:00:00</t>
+          <t>2020-06-30 00:00:00</t>
         </is>
       </c>
       <c r="O2" t="n">
-        <v>293752048.01</v>
+        <v>465486349.12</v>
       </c>
       <c r="P2" t="n">
-        <v>91929681.16</v>
+        <v>140201801.52</v>
       </c>
       <c r="Q2" t="n">
-        <v>2651505.23</v>
-      </c>
-      <c r="R2" t="n">
-        <v>22.6300258769</v>
-      </c>
+        <v>12302265.4</v>
+      </c>
+      <c r="R2" t="inlineStr"/>
       <c r="S2" t="n">
-        <v>84135473.90000001</v>
-      </c>
-      <c r="T2" t="n">
-        <v>83.9170774461</v>
-      </c>
+        <v>145693570.47</v>
+      </c>
+      <c r="T2" t="inlineStr"/>
       <c r="U2" t="n">
-        <v>56637824.44</v>
-      </c>
-      <c r="V2" t="n">
-        <v>59.2442056396</v>
-      </c>
+        <v>81077923.83</v>
+      </c>
+      <c r="V2" t="inlineStr"/>
       <c r="W2" t="n">
-        <v>84716870.87</v>
+        <v>147109632.17</v>
       </c>
       <c r="X2" t="n">
-        <v>43010263.48</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>153.613804039</v>
-      </c>
+        <v>90065070.09999999</v>
+      </c>
+      <c r="Y2" t="inlineStr"/>
       <c r="Z2" t="n">
-        <v>352292.68</v>
-      </c>
-      <c r="AA2" t="n">
-        <v>-64.98645256659999</v>
-      </c>
+        <v>122890.12</v>
+      </c>
+      <c r="AA2" t="inlineStr"/>
       <c r="AB2" t="n">
-        <v>209035177.14</v>
-      </c>
-      <c r="AC2" t="n">
-        <v>37.2430540793</v>
-      </c>
-      <c r="AD2" t="n">
-        <v>43.2704180411</v>
-      </c>
-      <c r="AE2" t="n">
-        <v>60.6826974564</v>
-      </c>
+        <v>318376716.95</v>
+      </c>
+      <c r="AC2" t="inlineStr"/>
+      <c r="AD2" t="inlineStr"/>
+      <c r="AE2" t="inlineStr"/>
       <c r="AF2" t="n">
-        <v>205.0990134597</v>
+        <v>213.7804359889</v>
       </c>
       <c r="AG2" t="n">
-        <v>28.83958476</v>
+        <v>31.6034256317</v>
       </c>
       <c r="AH2" t="inlineStr"/>
       <c r="AI2" t="inlineStr"/>

--- a/资产负债表/688668.xlsx
+++ b/资产负债表/688668.xlsx
@@ -769,7 +769,7 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>002</t>
+          <t>001</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
@@ -789,49 +789,65 @@
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>2020-06-30 00:00:00</t>
+          <t>2019-12-31 00:00:00</t>
         </is>
       </c>
       <c r="O2" t="n">
-        <v>465486349.12</v>
+        <v>376968032.44</v>
       </c>
       <c r="P2" t="n">
-        <v>140201801.52</v>
+        <v>96961532.06</v>
       </c>
       <c r="Q2" t="n">
-        <v>12302265.4</v>
-      </c>
-      <c r="R2" t="inlineStr"/>
+        <v>47691798.33</v>
+      </c>
+      <c r="R2" t="n">
+        <v>1698.6688387562</v>
+      </c>
       <c r="S2" t="n">
-        <v>145693570.47</v>
-      </c>
-      <c r="T2" t="inlineStr"/>
+        <v>74235893.83</v>
+      </c>
+      <c r="T2" t="n">
+        <v>-11.7662379626</v>
+      </c>
       <c r="U2" t="n">
-        <v>81077923.83</v>
-      </c>
-      <c r="V2" t="inlineStr"/>
+        <v>62101004.18</v>
+      </c>
+      <c r="V2" t="n">
+        <v>9.645814955000001</v>
+      </c>
       <c r="W2" t="n">
-        <v>147109632.17</v>
+        <v>93985171.70999999</v>
       </c>
       <c r="X2" t="n">
-        <v>90065070.09999999</v>
-      </c>
-      <c r="Y2" t="inlineStr"/>
+        <v>38642945.87</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>-10.1541289372</v>
+      </c>
       <c r="Z2" t="n">
-        <v>122890.12</v>
-      </c>
-      <c r="AA2" t="inlineStr"/>
+        <v>704796.29</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>100.059873512</v>
+      </c>
       <c r="AB2" t="n">
-        <v>318376716.95</v>
-      </c>
-      <c r="AC2" t="inlineStr"/>
-      <c r="AD2" t="inlineStr"/>
-      <c r="AE2" t="inlineStr"/>
+        <v>282982860.73</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>35.375712644</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>28.3286482575</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>10.9403248076</v>
+      </c>
       <c r="AF2" t="n">
-        <v>213.7804359889</v>
+        <v>324.8255683068</v>
       </c>
       <c r="AG2" t="n">
-        <v>31.6034256317</v>
+        <v>24.9318678567</v>
       </c>
       <c r="AH2" t="inlineStr"/>
       <c r="AI2" t="inlineStr"/>
